--- a/publipostage/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,33 +493,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00988767</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00545194</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RBM99026</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+          <t>Randomized Study on Removable PGE2 Vaginal Insert Versus PGE2 Intravaginal Gel for Cervical Priming and Labour Induction in Term Pregnancy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -525,29 +531,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00545194</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00988767</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Randomized Study on Removable PGE2 Vaginal Insert Versus PGE2 Intravaginal Gel for Cervical Priming and Labour Induction in Term Pregnancy</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>RBM99026</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +573,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00236340</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Syringe or Continuous Amnioreduction for Symptomatic Polyhydramnios. A Prospective Randomized Study.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -591,28 +611,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00272428</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>The SU.VI.MAX Study. A Randomized, Placebo-controlled Prevention Trial of the Health Effects of Antioxidant Vitamins and Minerals.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -624,28 +649,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT00339157</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ANAkinra in Severe Juvenile Idiopathic Arthritis of Systemic Onset (ANAJIS)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -657,33 +687,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT01024400</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT01086904</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PREFLUVAC</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Transfluvac</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,33 +729,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT01086904</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT01024400</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Transfluvac</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PREFLUVAC</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -731,32 +771,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT01075061</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT01188525</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MOMIC</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CIME1</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -768,32 +813,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01188525</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT01075061</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CIME1</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MOMIC</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -805,28 +855,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01548586</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT01489592</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Modulation de l'excitabilité Des Aires Corticales Motrices Primaires Correspondant Aux hémi Diaphragmes à l'Aide de la tDCS (Transcranial Direct Current Stimulation)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Effect of Curcumin on Iron Metabolism in Healthy Volunteer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CURHEP</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -838,32 +897,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT01331876</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01548586</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TOC TOC</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+          <t>Modulation de l'excitabilité Des Aires Corticales Motrices Primaires Correspondant Aux hémi Diaphragmes à l'Aide de la tDCS (Transcranial Direct Current Stimulation)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -875,32 +935,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01489592</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01331876</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Effect of Curcumin on Iron Metabolism in Healthy Volunteer</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CURHEP</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>TOC TOC</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -912,32 +977,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT01359774</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00820820</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PRO-MH</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IDA-Adult</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -949,28 +1019,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT01531036</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -982,32 +1057,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00820820</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01359774</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IDA-Adult</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PRO-MH</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1019,32 +1099,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01579435</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01552044</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ELECTRE</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1056,32 +1137,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT01555450</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>The Patient Navigator to Reduce Social Inequalities. A French Interventional Trial in Public Health</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>PRADO</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1093,99 +1179,118 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT01493934</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Development of a Fast Measurement Technique of Insulin Resistance in Human, With 123-6-deoxy-6 Iodo-D-glucose, a New Tracer of Glucose Transport</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>GLUCIMAG</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01552044</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01882062</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>TRIHEP2</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01882062</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01579435</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TRIHEP2</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ELECTRE</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1196,28 +1301,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT01094899</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Study of Abnormal Structure and Bone Density at the Feet of Diabetic Patients</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1229,33 +1339,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT02113943</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01432821</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MBBCitalopram</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>BYE BYE DOPA</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1266,32 +1381,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01495897</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02113943</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MOUVADOC</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MBBCitalopram</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1303,107 +1423,118 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01432821</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT01495897</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BYE BYE DOPA</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MOUVADOC</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT01696708</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT02078076</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PRO-MH2</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
+          <t>IRM Cardiaque en Respiration Libre Pour Des Patients Atteints de Dystrophinopathie sévère</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02976298</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01089387</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CERESMARCHE</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>INSTIN</t>
+        </is>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1414,29 +1545,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02078076</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT01490489</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>IRM Cardiaque en Respiration Libre Pour Des Patients Atteints de Dystrophinopathie sévère</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="b">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>EGEVE</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1447,70 +1587,80 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02014727</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01688453</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AMA1-DiCo</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PRALIMAP-INES</t>
+        </is>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT01688453</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT03109067</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PRALIMAP-INES</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HDL-PP</t>
+        </is>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1521,106 +1671,121 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT03109067</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02976298</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HDL-PP</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CERESMARCHE</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT01490489</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01696708</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EGEVE</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PRO-MH2</t>
+        </is>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01089387</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02014727</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>INSTIN</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
+          <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>AMA1-DiCo</t>
+        </is>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1632,32 +1797,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02082171</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT01508494</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Multidomain Intervention to Prevent Disability in Elders</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MINDED</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>COGICRehab</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1669,32 +1839,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02073630</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02126384</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GAMMA</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PNEUMOVACB</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1706,32 +1881,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02267304</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02073630</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MBBAnalgesic</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1743,32 +1923,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01842477</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02073604</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>OrthoCT1</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MOMIC2</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1780,32 +1965,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02073604</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02267304</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MOMIC2</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MBBAnalgesic</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1817,28 +2007,33 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>NCT01569399</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1850,32 +2045,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT02126384</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02082171</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PNEUMOVACB</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Multidomain Intervention to Prevent Disability in Elders</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MINDED</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1887,32 +2087,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT02428816</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT01842477</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MultiPAMS</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>OrthoCT1</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1924,32 +2129,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01508494</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02101398</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>COGICRehab</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
+          <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1961,28 +2167,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02101398</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02172677</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MULTIBRAIN_1</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1994,32 +2209,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02172677</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02428816</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MULTIBRAIN_1</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MultiPAMS</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2031,32 +2251,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02978924</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02542800</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>STOP</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MULTIBRAIN_2</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2068,32 +2293,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02542800</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT00445575</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MULTIBRAIN_2</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Effect of Risedronate on Bone Morbidity in Fibrous Dysplasia of Bone</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PROFIDYS</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2105,32 +2335,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT00445575</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02978924</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Effect of Risedronate on Bone Morbidity in Fibrous Dysplasia of Bone</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PROFIDYS</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>STOP</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2142,32 +2377,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>NCT02408354</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>"Etude Pilote, Comparative, Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, Testant l'efficacité de l'Huile triheptanoïne Dans Les Hémiplégies Alternantes de l'Enfant" HEMIHEP</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>HEMIHEP</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2179,32 +2419,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>NCT02469350</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Feasibility and Acceptability Study of Serious Game Rehabilitation Program in Parkinson's Disease Patients With Resistant Gait and Balance Disorders</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>PARKGAME</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2216,32 +2461,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT03446430</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02650427</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CARDIS-PWV</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>HCC-DPPIV</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2253,110 +2503,125 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02650427</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02314208</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HCC-DPPIV</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SPA-M</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02542891</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
+          <t>2013-002996-16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>E-COMPARED</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2013-002996-16</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence.  
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02051413</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>DEPARRESTCLIN</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2367,32 +2632,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02052271</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03446430</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ELECTRE2</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CARDIS-PWV</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2404,70 +2674,80 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02102737</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02481453</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>GLUCIMAG2</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>RAPAMI</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02960698</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT03005652</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>COGIT</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SCD-WELL</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2478,70 +2758,80 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02656407</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02960698</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FUSIMAGINE</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>COGIT</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT03005652</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02052271</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SCD-WELL</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ELECTRE2</t>
+        </is>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2552,32 +2842,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02481453</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02656407</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RAPAMI</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FUSIMAGINE</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2589,70 +2884,80 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02314208</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02346409</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SPA-M</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>CERESTIM</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT02346409</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT02542891</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CERESTIM</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>E-COMPARED</t>
+        </is>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2663,32 +2968,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02051413</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02102737</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DEPARRESTCLIN</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>GLUCIMAG2</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2700,33 +3010,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT01880151</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
+          <t>2014-005112-42</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ESTIMATE</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
+          <t>A comparative phase2 study assessing the efficacy of triheptanoin, an anaplerotic therapy in Huntington's Disease (TRIHEP 3)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2735,31 +3046,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2014-005112-42</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+          <t>NCT03193099</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>A comparative phase2 study assessing the efficacy of triheptanoin, an anaplerotic therapy in Huntington's Disease (TRIHEP 3)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="b">
-        <v>0</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Win-HD</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2770,70 +3090,80 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>NCT02014883</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Phase II Open Label Study Using Triheptanoin in Patients With Glucose Type 1 Transporter Deficiency GLUT1-DS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>GLUT-HEP</t>
         </is>
       </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
       <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03150290</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02658253</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>BATALS</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PRIMALVAC</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2844,66 +3174,80 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03047967</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT01880151</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="b">
-        <v>0</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ESTIMATE</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02658253</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT02833961</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>PRIMALVAC</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ISIS</t>
+        </is>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2914,32 +3258,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>NCT02453061</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>TRIHEP3</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
       <c r="H69" t="b">
         <v>1</v>
       </c>
       <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2951,32 +3300,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT02833961</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT02567071</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ISIS</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>RESTORE</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2988,32 +3342,33 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02567071</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT03047967</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>RESTORE</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
+          <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3025,32 +3380,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03193099</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03150290</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Win-HD</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>BATALS</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3062,32 +3422,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02931097</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02721745</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>GAITPARK</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Cause and Consequence of Neural Fatigue</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Fatstim</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3099,32 +3464,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT05090956</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02081066</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(MISAP)</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CETP-ATHERO</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3136,32 +3506,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02721745</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02931097</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Cause and Consequence of Neural Fatigue</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fatstim</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>GAITPARK</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3173,32 +3548,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT02081066</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT05090956</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CETP-ATHERO</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>(MISAP)</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3210,32 +3590,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT02236832</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT04808986</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ANALOG</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>Séroprévalence Des IgG dirigés Contre le SARS-CoV-2 Chez Les Professionnels de santé en Soins Primaires et Leurs Contacts au Sein Des ménages</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>COVID-SeroPRIM</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3247,32 +3632,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>NCT04780191</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Investigation of Treatment Using the MyoRegulator® Device in Patients With Spasticity in the Lower Limb Due to Stroke</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>SPAST</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3284,32 +3674,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT04808986</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02236832</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Séroprévalence Des IgG dirigés Contre le SARS-CoV-2 Chez Les Professionnels de santé en Soins Primaires et Leurs Contacts au Sein Des ménages</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>COVID-SeroPRIM</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ANALOG</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3321,32 +3716,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT04265742</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT02027233</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MICROBONE</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Efficiency in Population of Influenza Vaccination for Flu Prevention of the Hospitalized Adults</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>FLUVAC EV-03</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3358,32 +3758,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT02027233</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT04265742</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Efficiency in Population of Influenza Vaccination for Flu Prevention of the Hospitalized Adults</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FLUVAC EV-03</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MICROBONE</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3395,107 +3800,122 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>NCT04945655</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Impact of a School- and Primary Care-based Multicomponent Intervention on HPV Vaccination Acceptability Among French Adolescents: a Cluster Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>PrevHPV</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT04315948</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT04484740</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DisCoVeRy</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
+          <t>Penetration of the Innovative Antibiotic Gepotidacin Into Prostate and Tonsillar Tissue.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>AB-Direct</t>
+        </is>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04484740</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT04315948</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Penetration of the Innovative Antibiotic Gepotidacin Into Prostate and Tonsillar Tissue.</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AB-Direct</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>DisCoVeRy</t>
+        </is>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3506,32 +3926,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT04272970</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Characterization of New Candidate Genes in Cases of Human Inherited Thrombocytopenia (CATCH). Molecular Etiologies in Cases of Thrombocytopenia</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>CATCH</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3543,32 +3968,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>NCT03272230</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Assessment of Apathy in a Real-life Situation, With a Video and Sensors-based System in Healthy Subject and Patient With Cerebral Disease</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>ECOCAPTURE</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
       <c r="H86" t="b">
         <v>1</v>
       </c>
       <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3580,32 +4010,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT04921930</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT05711693</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ARTEMIS</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>InSide-CC</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3617,28 +4052,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04396288</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT06431984</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="b">
-        <v>0</v>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PSK</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3650,32 +4094,33 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT06431984</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04396288</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PSK</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
+          <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3687,32 +4132,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT05711693</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT04921930</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>InSide-CC</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>ARTEMIS</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3722,31 +4172,37 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2007-007267-25</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Immunothérapie par vaccination anti-rougeoleuse chez l'adulte atteint de dermatite atopique</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2021-000509-26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Protocole IDA</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
+ Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3755,100 +4211,114 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2017-000040-17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
+ Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>QUATUOR 
+ QUATUOR</t>
+        </is>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2007-007267-25</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Immunothérapie par vaccination anti-rougeoleuse chez l'adulte atteint de dermatite atopique</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Protocole IDA</t>
+        </is>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
         <is>
           <t>2019-002829-29</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
  Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Doxyvac</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2017-000040-17</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
- Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>QUATUOR 
- QUATUOR</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2021-000509-26</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
- Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -762,6 +797,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -804,6 +844,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -846,6 +891,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -888,6 +938,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -926,6 +981,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -968,6 +1028,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1010,6 +1075,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1118,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1090,6 +1165,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1128,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1170,6 +1255,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1212,6 +1302,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1250,6 +1345,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1292,6 +1392,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1330,6 +1435,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1372,6 +1482,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1414,6 +1529,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1456,6 +1576,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1494,6 +1619,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1536,6 +1666,11 @@
       <c r="J27" t="b">
         <v>1</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1578,6 +1713,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1620,6 +1760,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1662,6 +1807,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1704,6 +1854,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1746,6 +1901,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1788,6 +1948,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1830,6 +1995,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1872,6 +2042,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,6 +2089,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1956,6 +2136,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1998,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2036,6 +2226,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2078,6 +2273,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2120,6 +2320,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2158,6 +2363,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2200,6 +2410,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2242,6 +2457,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2284,6 +2504,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2326,6 +2551,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2368,6 +2598,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2410,6 +2645,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2452,6 +2692,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2494,6 +2739,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2535,6 +2785,11 @@
       </c>
       <c r="J51" t="b">
         <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2581,6 +2836,7 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2623,6 +2879,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2665,6 +2926,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2707,6 +2973,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2749,6 +3020,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2791,6 +3067,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2833,6 +3114,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2875,6 +3161,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2917,6 +3208,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2959,6 +3255,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3001,6 +3302,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3039,6 +3345,7 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3081,6 +3388,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3123,6 +3435,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3165,6 +3482,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3207,6 +3529,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3249,6 +3576,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3291,6 +3623,11 @@
       <c r="J69" t="b">
         <v>1</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3333,6 +3670,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3371,6 +3713,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3413,6 +3760,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3455,6 +3807,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3497,6 +3854,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3539,6 +3901,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3581,6 +3948,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3623,6 +3995,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3665,6 +4042,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3707,6 +4089,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3749,6 +4136,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3791,6 +4183,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3833,6 +4230,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3875,6 +4277,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3917,6 +4324,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3959,6 +4371,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4001,6 +4418,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4043,6 +4465,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4085,6 +4512,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4123,6 +4555,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4165,6 +4602,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4204,6 +4646,7 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4244,6 +4687,7 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4282,6 +4726,7 @@
       <c r="J93" t="b">
         <v>1</v>
       </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4321,6 +4766,7 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
